--- a/devel/Samplelog MOSJ 2015.xlsx
+++ b/devel/Samplelog MOSJ 2015.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anette\Documents\Dropbox\Marinbiology Database\Samplelog\2015\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikko\Dropbox\Workstuff\R\R packages\MarineDatabase\devel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Samplelog!$A$1:$R$587</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -2971,32 +2971,32 @@
   <dimension ref="A1:R587"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="R1" sqref="R1:R1048576"/>
+      <selection pane="bottomLeft" activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="21"/>
-    <col min="3" max="3" width="6.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="31" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="28" customWidth="1"/>
-    <col min="7" max="8" width="8.7109375" style="31" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="22" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="21"/>
+    <col min="3" max="3" width="6.54296875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="31" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="28" customWidth="1"/>
+    <col min="7" max="8" width="8.7265625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="22" customWidth="1"/>
     <col min="10" max="10" width="7" style="23" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="24" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="9.140625" style="20" customWidth="1"/>
-    <col min="16" max="16" width="21.140625" style="20"/>
-    <col min="17" max="17" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.28515625" style="25" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="20"/>
+    <col min="11" max="11" width="15.26953125" style="24" customWidth="1"/>
+    <col min="12" max="12" width="13.7265625" style="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9.1796875" style="20" customWidth="1"/>
+    <col min="16" max="16" width="21.1796875" style="20"/>
+    <col min="17" max="17" width="23.453125" style="20" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.26953125" style="25" customWidth="1"/>
+    <col min="19" max="16384" width="9.1796875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>581</v>
       </c>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="R2" s="19"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>581</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>581</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>581</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>581</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>581</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>581</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>581</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>581</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>581</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>581</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>581</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>581</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>581</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>581</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>581</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>581</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>581</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>581</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
         <v>581</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
         <v>581</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
         <v>581</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>581</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
         <v>581</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
         <v>581</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
         <v>581</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
         <v>581</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
         <v>581</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
         <v>581</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
         <v>581</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
         <v>581</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
         <v>581</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="21" t="s">
         <v>581</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="21" t="s">
         <v>581</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="21" t="s">
         <v>581</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="21" t="s">
         <v>581</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="21" t="s">
         <v>581</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="21" t="s">
         <v>581</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="21" t="s">
         <v>581</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="21" t="s">
         <v>581</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
         <v>581</v>
       </c>
@@ -5064,7 +5064,7 @@
       </c>
       <c r="R42" s="19"/>
     </row>
-    <row r="43" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="21" t="s">
         <v>581</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="21" t="s">
         <v>581</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="21" t="s">
         <v>581</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="21" t="s">
         <v>581</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="21" t="s">
         <v>581</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="21" t="s">
         <v>581</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="21" t="s">
         <v>581</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="21" t="s">
         <v>581</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="21" t="s">
         <v>581</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="21" t="s">
         <v>581</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="21" t="s">
         <v>581</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="21" t="s">
         <v>581</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="21" t="s">
         <v>581</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="21" t="s">
         <v>581</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="21" t="s">
         <v>581</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="21" t="s">
         <v>581</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="21" t="s">
         <v>581</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="21" t="s">
         <v>581</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="21" t="s">
         <v>581</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="21" t="s">
         <v>581</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="21" t="s">
         <v>581</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="21" t="s">
         <v>581</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="21" t="s">
         <v>581</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="21" t="s">
         <v>581</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="21" t="s">
         <v>581</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="21" t="s">
         <v>581</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="21" t="s">
         <v>581</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="21" t="s">
         <v>581</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="36" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" ht="36" x14ac:dyDescent="0.3">
       <c r="A71" s="21" t="s">
         <v>581</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
         <v>581</v>
       </c>
@@ -6490,7 +6490,7 @@
       </c>
       <c r="R72" s="19"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" s="21" t="s">
         <v>581</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="21" t="s">
         <v>581</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" s="21" t="s">
         <v>581</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" s="21" t="s">
         <v>581</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" s="21" t="s">
         <v>581</v>
       </c>
@@ -6725,7 +6725,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" s="21" t="s">
         <v>581</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" s="21" t="s">
         <v>581</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" s="21" t="s">
         <v>581</v>
       </c>
@@ -6866,7 +6866,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="21" t="s">
         <v>581</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="21" t="s">
         <v>581</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="21" t="s">
         <v>581</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="21" t="s">
         <v>581</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="21" t="s">
         <v>581</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="21" t="s">
         <v>581</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="21" t="s">
         <v>581</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="21" t="s">
         <v>581</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="21" t="s">
         <v>581</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="21" t="s">
         <v>581</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="21" t="s">
         <v>581</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="21" t="s">
         <v>581</v>
       </c>
@@ -7430,7 +7430,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="21" t="s">
         <v>581</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="21" t="s">
         <v>581</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="21" t="s">
         <v>581</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="21" t="s">
         <v>581</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="21" t="s">
         <v>581</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="21" t="s">
         <v>581</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="21" t="s">
         <v>581</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="21" t="s">
         <v>581</v>
       </c>
@@ -7806,7 +7806,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="21" t="s">
         <v>581</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="21" t="s">
         <v>581</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="21" t="s">
         <v>581</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="21" t="s">
         <v>581</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="21" t="s">
         <v>581</v>
       </c>
@@ -8050,7 +8050,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="21" t="s">
         <v>581</v>
       </c>
@@ -8100,7 +8100,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="21" t="s">
         <v>581</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="21" t="s">
         <v>581</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="21" t="s">
         <v>581</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="21" t="s">
         <v>581</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="21" t="s">
         <v>581</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" s="21" t="s">
         <v>581</v>
       </c>
@@ -8400,7 +8400,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" s="21" t="s">
         <v>581</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114" s="21" t="s">
         <v>581</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115" s="21" t="s">
         <v>581</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116" s="21" t="s">
         <v>581</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A117" s="21" t="s">
         <v>581</v>
       </c>
@@ -8650,7 +8650,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A118" s="21" t="s">
         <v>581</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A119" s="21" t="s">
         <v>581</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A120" s="21" t="s">
         <v>581</v>
       </c>
@@ -8794,7 +8794,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A121" s="21" t="s">
         <v>581</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A122" s="21" t="s">
         <v>581</v>
       </c>
@@ -8888,7 +8888,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A123" s="21" t="s">
         <v>581</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A124" s="21" t="s">
         <v>581</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A125" s="21" t="s">
         <v>581</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A126" s="21" t="s">
         <v>581</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="127" spans="1:18" ht="36" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:18" ht="36" x14ac:dyDescent="0.3">
       <c r="A127" s="21" t="s">
         <v>581</v>
       </c>
@@ -9138,7 +9138,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A128" s="21" t="s">
         <v>581</v>
       </c>
@@ -9188,7 +9188,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A129" s="21" t="s">
         <v>581</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A130" s="15" t="s">
         <v>581</v>
       </c>
@@ -9290,7 +9290,7 @@
       </c>
       <c r="R130" s="19"/>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A131" s="21" t="s">
         <v>581</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A132" s="21" t="s">
         <v>581</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A133" s="21" t="s">
         <v>581</v>
       </c>
@@ -9431,7 +9431,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A134" s="21" t="s">
         <v>581</v>
       </c>
@@ -9478,7 +9478,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A135" s="21" t="s">
         <v>581</v>
       </c>
@@ -9525,7 +9525,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A136" s="21" t="s">
         <v>581</v>
       </c>
@@ -9572,7 +9572,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A137" s="21" t="s">
         <v>581</v>
       </c>
@@ -9619,7 +9619,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A138" s="21" t="s">
         <v>581</v>
       </c>
@@ -9666,7 +9666,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A139" s="21" t="s">
         <v>581</v>
       </c>
@@ -9713,7 +9713,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A140" s="21" t="s">
         <v>581</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A141" s="21" t="s">
         <v>581</v>
       </c>
@@ -9807,7 +9807,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A142" s="21" t="s">
         <v>581</v>
       </c>
@@ -9854,7 +9854,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A143" s="21" t="s">
         <v>581</v>
       </c>
@@ -9901,7 +9901,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A144" s="21" t="s">
         <v>581</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145" s="21" t="s">
         <v>581</v>
       </c>
@@ -9995,7 +9995,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146" s="21" t="s">
         <v>581</v>
       </c>
@@ -10042,7 +10042,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" s="21" t="s">
         <v>581</v>
       </c>
@@ -10089,7 +10089,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" s="21" t="s">
         <v>581</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" s="21" t="s">
         <v>581</v>
       </c>
@@ -10183,7 +10183,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" s="21" t="s">
         <v>581</v>
       </c>
@@ -10230,7 +10230,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="21" t="s">
         <v>581</v>
       </c>
@@ -10277,7 +10277,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" s="21" t="s">
         <v>581</v>
       </c>
@@ -10324,7 +10324,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" s="21" t="s">
         <v>581</v>
       </c>
@@ -10371,7 +10371,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" s="21" t="s">
         <v>581</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" s="21" t="s">
         <v>581</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A156" s="21" t="s">
         <v>581</v>
       </c>
@@ -10512,7 +10512,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A157" s="21" t="s">
         <v>581</v>
       </c>
@@ -10559,7 +10559,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A158" s="21" t="s">
         <v>581</v>
       </c>
@@ -10606,7 +10606,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A159" s="21" t="s">
         <v>581</v>
       </c>
@@ -10653,7 +10653,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A160" s="21" t="s">
         <v>581</v>
       </c>
@@ -10700,7 +10700,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A161" s="21" t="s">
         <v>581</v>
       </c>
@@ -10747,7 +10747,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A162" s="21" t="s">
         <v>581</v>
       </c>
@@ -10794,7 +10794,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A163" s="21" t="s">
         <v>581</v>
       </c>
@@ -10841,7 +10841,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A164" s="21" t="s">
         <v>581</v>
       </c>
@@ -10888,7 +10888,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A165" s="21" t="s">
         <v>581</v>
       </c>
@@ -10935,7 +10935,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A166" s="21" t="s">
         <v>581</v>
       </c>
@@ -10982,7 +10982,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A167" s="21" t="s">
         <v>581</v>
       </c>
@@ -11029,7 +11029,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A168" s="21" t="s">
         <v>581</v>
       </c>
@@ -11076,7 +11076,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A169" s="21" t="s">
         <v>581</v>
       </c>
@@ -11123,7 +11123,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A170" s="21" t="s">
         <v>581</v>
       </c>
@@ -11170,7 +11170,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A171" s="21" t="s">
         <v>581</v>
       </c>
@@ -11217,7 +11217,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A172" s="21" t="s">
         <v>581</v>
       </c>
@@ -11264,7 +11264,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A173" s="21" t="s">
         <v>581</v>
       </c>
@@ -11314,7 +11314,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A174" s="21" t="s">
         <v>581</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A175" s="21" t="s">
         <v>581</v>
       </c>
@@ -11414,7 +11414,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A176" s="21" t="s">
         <v>581</v>
       </c>
@@ -11464,7 +11464,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A177" s="21" t="s">
         <v>581</v>
       </c>
@@ -11514,7 +11514,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A178" s="21" t="s">
         <v>581</v>
       </c>
@@ -11564,7 +11564,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A179" s="21" t="s">
         <v>581</v>
       </c>
@@ -11614,7 +11614,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A180" s="21" t="s">
         <v>581</v>
       </c>
@@ -11664,7 +11664,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A181" s="21" t="s">
         <v>581</v>
       </c>
@@ -11714,7 +11714,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A182" s="21" t="s">
         <v>581</v>
       </c>
@@ -11764,7 +11764,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A183" s="21" t="s">
         <v>581</v>
       </c>
@@ -11814,7 +11814,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A184" s="21" t="s">
         <v>581</v>
       </c>
@@ -11864,7 +11864,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A185" s="21" t="s">
         <v>581</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A186" s="21" t="s">
         <v>581</v>
       </c>
@@ -11964,7 +11964,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A187" s="21" t="s">
         <v>581</v>
       </c>
@@ -12014,7 +12014,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A188" s="21" t="s">
         <v>581</v>
       </c>
@@ -12064,7 +12064,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A189" s="21" t="s">
         <v>581</v>
       </c>
@@ -12114,7 +12114,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A190" s="21" t="s">
         <v>581</v>
       </c>
@@ -12164,7 +12164,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A191" s="21" t="s">
         <v>581</v>
       </c>
@@ -12214,7 +12214,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A192" s="21" t="s">
         <v>581</v>
       </c>
@@ -12264,7 +12264,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A193" s="21" t="s">
         <v>581</v>
       </c>
@@ -12314,7 +12314,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A194" s="21" t="s">
         <v>581</v>
       </c>
@@ -12364,7 +12364,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A195" s="21" t="s">
         <v>581</v>
       </c>
@@ -12411,7 +12411,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A196" s="21" t="s">
         <v>581</v>
       </c>
@@ -12458,7 +12458,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A197" s="21" t="s">
         <v>581</v>
       </c>
@@ -12505,7 +12505,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A198" s="21" t="s">
         <v>581</v>
       </c>
@@ -12552,7 +12552,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A199" s="21" t="s">
         <v>581</v>
       </c>
@@ -12599,7 +12599,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A200" s="21" t="s">
         <v>581</v>
       </c>
@@ -12649,7 +12649,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A201" s="21" t="s">
         <v>581</v>
       </c>
@@ -12699,7 +12699,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A202" s="21" t="s">
         <v>581</v>
       </c>
@@ -12749,7 +12749,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A203" s="21" t="s">
         <v>581</v>
       </c>
@@ -12799,7 +12799,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A204" s="21" t="s">
         <v>581</v>
       </c>
@@ -12849,7 +12849,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A205" s="21" t="s">
         <v>581</v>
       </c>
@@ -12899,7 +12899,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A206" s="21" t="s">
         <v>581</v>
       </c>
@@ -12949,7 +12949,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A207" s="21" t="s">
         <v>581</v>
       </c>
@@ -12999,7 +12999,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A208" s="21" t="s">
         <v>581</v>
       </c>
@@ -13049,7 +13049,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="209" spans="1:18" ht="36" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:18" ht="36" x14ac:dyDescent="0.3">
       <c r="A209" s="21" t="s">
         <v>581</v>
       </c>
@@ -13102,7 +13102,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A210" s="21" t="s">
         <v>581</v>
       </c>
@@ -13152,7 +13152,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A211" s="15" t="s">
         <v>581</v>
       </c>
@@ -13204,7 +13204,7 @@
       </c>
       <c r="R211" s="19"/>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A212" s="21" t="s">
         <v>581</v>
       </c>
@@ -13251,7 +13251,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A213" s="21" t="s">
         <v>581</v>
       </c>
@@ -13298,7 +13298,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A214" s="21" t="s">
         <v>581</v>
       </c>
@@ -13345,7 +13345,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A215" s="21" t="s">
         <v>581</v>
       </c>
@@ -13392,7 +13392,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A216" s="21" t="s">
         <v>581</v>
       </c>
@@ -13439,7 +13439,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A217" s="21" t="s">
         <v>581</v>
       </c>
@@ -13486,7 +13486,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A218" s="21" t="s">
         <v>581</v>
       </c>
@@ -13533,7 +13533,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A219" s="21" t="s">
         <v>581</v>
       </c>
@@ -13580,7 +13580,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A220" s="21" t="s">
         <v>581</v>
       </c>
@@ -13627,7 +13627,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A221" s="21" t="s">
         <v>581</v>
       </c>
@@ -13674,7 +13674,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A222" s="21" t="s">
         <v>581</v>
       </c>
@@ -13721,7 +13721,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A223" s="21" t="s">
         <v>581</v>
       </c>
@@ -13768,7 +13768,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A224" s="21" t="s">
         <v>581</v>
       </c>
@@ -13815,7 +13815,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A225" s="21" t="s">
         <v>581</v>
       </c>
@@ -13862,7 +13862,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A226" s="21" t="s">
         <v>581</v>
       </c>
@@ -13909,7 +13909,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A227" s="21" t="s">
         <v>581</v>
       </c>
@@ -13956,7 +13956,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A228" s="21" t="s">
         <v>581</v>
       </c>
@@ -14003,7 +14003,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A229" s="21" t="s">
         <v>581</v>
       </c>
@@ -14050,7 +14050,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A230" s="21" t="s">
         <v>581</v>
       </c>
@@ -14097,7 +14097,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A231" s="21" t="s">
         <v>581</v>
       </c>
@@ -14144,7 +14144,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A232" s="21" t="s">
         <v>581</v>
       </c>
@@ -14191,7 +14191,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A233" s="21" t="s">
         <v>581</v>
       </c>
@@ -14238,7 +14238,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A234" s="21" t="s">
         <v>581</v>
       </c>
@@ -14285,7 +14285,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A235" s="21" t="s">
         <v>581</v>
       </c>
@@ -14332,7 +14332,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A236" s="21" t="s">
         <v>581</v>
       </c>
@@ -14379,7 +14379,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A237" s="21" t="s">
         <v>581</v>
       </c>
@@ -14426,7 +14426,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A238" s="21" t="s">
         <v>581</v>
       </c>
@@ -14473,7 +14473,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A239" s="21" t="s">
         <v>581</v>
       </c>
@@ -14520,7 +14520,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A240" s="21" t="s">
         <v>581</v>
       </c>
@@ -14567,7 +14567,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A241" s="21" t="s">
         <v>581</v>
       </c>
@@ -14614,7 +14614,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A242" s="21" t="s">
         <v>581</v>
       </c>
@@ -14661,7 +14661,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A243" s="21" t="s">
         <v>581</v>
       </c>
@@ -14708,7 +14708,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A244" s="21" t="s">
         <v>581</v>
       </c>
@@ -14755,7 +14755,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A245" s="21" t="s">
         <v>581</v>
       </c>
@@ -14802,7 +14802,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A246" s="21" t="s">
         <v>581</v>
       </c>
@@ -14849,7 +14849,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A247" s="21" t="s">
         <v>581</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A248" s="21" t="s">
         <v>581</v>
       </c>
@@ -14943,7 +14943,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A249" s="21" t="s">
         <v>581</v>
       </c>
@@ -14990,7 +14990,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A250" s="21" t="s">
         <v>581</v>
       </c>
@@ -15037,7 +15037,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A251" s="21" t="s">
         <v>581</v>
       </c>
@@ -15084,7 +15084,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A252" s="21" t="s">
         <v>581</v>
       </c>
@@ -15131,7 +15131,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A253" s="21" t="s">
         <v>581</v>
       </c>
@@ -15178,7 +15178,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A254" s="21" t="s">
         <v>581</v>
       </c>
@@ -15228,7 +15228,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A255" s="21" t="s">
         <v>581</v>
       </c>
@@ -15278,7 +15278,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A256" s="21" t="s">
         <v>581</v>
       </c>
@@ -15328,7 +15328,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A257" s="21" t="s">
         <v>581</v>
       </c>
@@ -15378,7 +15378,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A258" s="21" t="s">
         <v>581</v>
       </c>
@@ -15428,7 +15428,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A259" s="21" t="s">
         <v>581</v>
       </c>
@@ -15478,7 +15478,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A260" s="21" t="s">
         <v>581</v>
       </c>
@@ -15528,7 +15528,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A261" s="21" t="s">
         <v>581</v>
       </c>
@@ -15578,7 +15578,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A262" s="21" t="s">
         <v>581</v>
       </c>
@@ -15628,7 +15628,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A263" s="21" t="s">
         <v>581</v>
       </c>
@@ -15678,7 +15678,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A264" s="21" t="s">
         <v>581</v>
       </c>
@@ -15728,7 +15728,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A265" s="21" t="s">
         <v>581</v>
       </c>
@@ -15778,7 +15778,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A266" s="21" t="s">
         <v>581</v>
       </c>
@@ -15828,7 +15828,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A267" s="21" t="s">
         <v>581</v>
       </c>
@@ -15878,7 +15878,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A268" s="21" t="s">
         <v>581</v>
       </c>
@@ -15928,7 +15928,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A269" s="21" t="s">
         <v>581</v>
       </c>
@@ -15978,7 +15978,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A270" s="21" t="s">
         <v>581</v>
       </c>
@@ -16028,7 +16028,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A271" s="21" t="s">
         <v>581</v>
       </c>
@@ -16078,7 +16078,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A272" s="21" t="s">
         <v>581</v>
       </c>
@@ -16128,7 +16128,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A273" s="21" t="s">
         <v>581</v>
       </c>
@@ -16178,7 +16178,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A274" s="21" t="s">
         <v>581</v>
       </c>
@@ -16228,7 +16228,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A275" s="21" t="s">
         <v>581</v>
       </c>
@@ -16278,7 +16278,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A276" s="21" t="s">
         <v>581</v>
       </c>
@@ -16325,7 +16325,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A277" s="21" t="s">
         <v>581</v>
       </c>
@@ -16372,7 +16372,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A278" s="21" t="s">
         <v>581</v>
       </c>
@@ -16419,7 +16419,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A279" s="21" t="s">
         <v>581</v>
       </c>
@@ -16466,7 +16466,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A280" s="21" t="s">
         <v>581</v>
       </c>
@@ -16513,7 +16513,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A281" s="21" t="s">
         <v>581</v>
       </c>
@@ -16563,7 +16563,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A282" s="21" t="s">
         <v>581</v>
       </c>
@@ -16613,7 +16613,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A283" s="21" t="s">
         <v>581</v>
       </c>
@@ -16663,7 +16663,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A284" s="21" t="s">
         <v>581</v>
       </c>
@@ -16713,7 +16713,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A285" s="21" t="s">
         <v>581</v>
       </c>
@@ -16763,7 +16763,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A286" s="21" t="s">
         <v>581</v>
       </c>
@@ -16813,7 +16813,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A287" s="21" t="s">
         <v>581</v>
       </c>
@@ -16863,7 +16863,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A288" s="21" t="s">
         <v>581</v>
       </c>
@@ -16913,7 +16913,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A289" s="21" t="s">
         <v>581</v>
       </c>
@@ -16966,7 +16966,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A290" s="21" t="s">
         <v>581</v>
       </c>
@@ -17007,7 +17007,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A291" s="15" t="s">
         <v>581</v>
       </c>
@@ -17059,7 +17059,7 @@
       </c>
       <c r="R291" s="19"/>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A292" s="21" t="s">
         <v>581</v>
       </c>
@@ -17106,7 +17106,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A293" s="21" t="s">
         <v>581</v>
       </c>
@@ -17153,7 +17153,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A294" s="21" t="s">
         <v>581</v>
       </c>
@@ -17200,7 +17200,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A295" s="21" t="s">
         <v>581</v>
       </c>
@@ -17247,7 +17247,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A296" s="21" t="s">
         <v>581</v>
       </c>
@@ -17294,7 +17294,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A297" s="21" t="s">
         <v>581</v>
       </c>
@@ -17341,7 +17341,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A298" s="21" t="s">
         <v>581</v>
       </c>
@@ -17388,7 +17388,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A299" s="21" t="s">
         <v>581</v>
       </c>
@@ -17435,7 +17435,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A300" s="21" t="s">
         <v>581</v>
       </c>
@@ -17482,7 +17482,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A301" s="21" t="s">
         <v>581</v>
       </c>
@@ -17529,7 +17529,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A302" s="21" t="s">
         <v>581</v>
       </c>
@@ -17576,7 +17576,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A303" s="21" t="s">
         <v>581</v>
       </c>
@@ -17623,7 +17623,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A304" s="21" t="s">
         <v>581</v>
       </c>
@@ -17670,7 +17670,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A305" s="21" t="s">
         <v>581</v>
       </c>
@@ -17717,7 +17717,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A306" s="21" t="s">
         <v>581</v>
       </c>
@@ -17764,7 +17764,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A307" s="21" t="s">
         <v>581</v>
       </c>
@@ -17811,7 +17811,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A308" s="21" t="s">
         <v>581</v>
       </c>
@@ -17858,7 +17858,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A309" s="21" t="s">
         <v>581</v>
       </c>
@@ -17905,7 +17905,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A310" s="21" t="s">
         <v>581</v>
       </c>
@@ -17952,7 +17952,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A311" s="21" t="s">
         <v>581</v>
       </c>
@@ -17999,7 +17999,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A312" s="21" t="s">
         <v>581</v>
       </c>
@@ -18046,7 +18046,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A313" s="21" t="s">
         <v>581</v>
       </c>
@@ -18093,7 +18093,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A314" s="21" t="s">
         <v>581</v>
       </c>
@@ -18140,7 +18140,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A315" s="21" t="s">
         <v>581</v>
       </c>
@@ -18187,7 +18187,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A316" s="21" t="s">
         <v>581</v>
       </c>
@@ -18234,7 +18234,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A317" s="21" t="s">
         <v>581</v>
       </c>
@@ -18281,7 +18281,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A318" s="21" t="s">
         <v>581</v>
       </c>
@@ -18328,7 +18328,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A319" s="21" t="s">
         <v>581</v>
       </c>
@@ -18375,7 +18375,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A320" s="21" t="s">
         <v>581</v>
       </c>
@@ -18422,7 +18422,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A321" s="21" t="s">
         <v>581</v>
       </c>
@@ -18469,7 +18469,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A322" s="21" t="s">
         <v>581</v>
       </c>
@@ -18516,7 +18516,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A323" s="21" t="s">
         <v>581</v>
       </c>
@@ -18563,7 +18563,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A324" s="21" t="s">
         <v>581</v>
       </c>
@@ -18610,7 +18610,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A325" s="21" t="s">
         <v>581</v>
       </c>
@@ -18657,7 +18657,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A326" s="21" t="s">
         <v>581</v>
       </c>
@@ -18704,7 +18704,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A327" s="21" t="s">
         <v>581</v>
       </c>
@@ -18751,7 +18751,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A328" s="21" t="s">
         <v>581</v>
       </c>
@@ -18798,7 +18798,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A329" s="21" t="s">
         <v>581</v>
       </c>
@@ -18845,7 +18845,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A330" s="21" t="s">
         <v>581</v>
       </c>
@@ -18892,7 +18892,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A331" s="21" t="s">
         <v>581</v>
       </c>
@@ -18939,7 +18939,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A332" s="21" t="s">
         <v>581</v>
       </c>
@@ -18986,7 +18986,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A333" s="21" t="s">
         <v>581</v>
       </c>
@@ -19033,7 +19033,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A334" s="21" t="s">
         <v>581</v>
       </c>
@@ -19083,7 +19083,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A335" s="21" t="s">
         <v>581</v>
       </c>
@@ -19133,7 +19133,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A336" s="21" t="s">
         <v>581</v>
       </c>
@@ -19183,7 +19183,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A337" s="21" t="s">
         <v>581</v>
       </c>
@@ -19233,7 +19233,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="338" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="21" t="s">
         <v>581</v>
       </c>
@@ -19283,7 +19283,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A339" s="21" t="s">
         <v>581</v>
       </c>
@@ -19333,7 +19333,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A340" s="21" t="s">
         <v>581</v>
       </c>
@@ -19383,7 +19383,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A341" s="21" t="s">
         <v>581</v>
       </c>
@@ -19433,7 +19433,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A342" s="21" t="s">
         <v>581</v>
       </c>
@@ -19483,7 +19483,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A343" s="21" t="s">
         <v>581</v>
       </c>
@@ -19533,7 +19533,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A344" s="21" t="s">
         <v>581</v>
       </c>
@@ -19583,7 +19583,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A345" s="21" t="s">
         <v>581</v>
       </c>
@@ -19633,7 +19633,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A346" s="21" t="s">
         <v>581</v>
       </c>
@@ -19683,7 +19683,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A347" s="21" t="s">
         <v>581</v>
       </c>
@@ -19733,7 +19733,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A348" s="21" t="s">
         <v>581</v>
       </c>
@@ -19783,7 +19783,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A349" s="21" t="s">
         <v>581</v>
       </c>
@@ -19833,7 +19833,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A350" s="21" t="s">
         <v>581</v>
       </c>
@@ -19880,7 +19880,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A351" s="21" t="s">
         <v>581</v>
       </c>
@@ -19927,7 +19927,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A352" s="21" t="s">
         <v>581</v>
       </c>
@@ -19974,7 +19974,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A353" s="21" t="s">
         <v>581</v>
       </c>
@@ -20021,7 +20021,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A354" s="21" t="s">
         <v>581</v>
       </c>
@@ -20068,7 +20068,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A355" s="21" t="s">
         <v>581</v>
       </c>
@@ -20112,7 +20112,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A356" s="21" t="s">
         <v>581</v>
       </c>
@@ -20156,7 +20156,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A357" s="21" t="s">
         <v>581</v>
       </c>
@@ -20200,7 +20200,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A358" s="21" t="s">
         <v>581</v>
       </c>
@@ -20250,7 +20250,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A359" s="21" t="s">
         <v>581</v>
       </c>
@@ -20300,7 +20300,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A360" s="21" t="s">
         <v>581</v>
       </c>
@@ -20350,7 +20350,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A361" s="21" t="s">
         <v>581</v>
       </c>
@@ -20400,7 +20400,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="362" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A362" s="21" t="s">
         <v>581</v>
       </c>
@@ -20450,7 +20450,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A363" s="21" t="s">
         <v>581</v>
       </c>
@@ -20500,7 +20500,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A364" s="21" t="s">
         <v>581</v>
       </c>
@@ -20550,7 +20550,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A365" s="21" t="s">
         <v>581</v>
       </c>
@@ -20600,7 +20600,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="366" spans="1:18" ht="36" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:18" ht="24" x14ac:dyDescent="0.3">
       <c r="A366" s="21" t="s">
         <v>581</v>
       </c>
@@ -20653,7 +20653,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="367" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A367" s="21" t="s">
         <v>581</v>
       </c>
@@ -20703,7 +20703,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A368" s="15" t="s">
         <v>581</v>
       </c>
@@ -20753,7 +20753,7 @@
       </c>
       <c r="R368" s="19"/>
     </row>
-    <row r="369" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A369" s="21" t="s">
         <v>581</v>
       </c>
@@ -20800,7 +20800,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A370" s="21" t="s">
         <v>581</v>
       </c>
@@ -20847,7 +20847,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="371" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A371" s="21" t="s">
         <v>581</v>
       </c>
@@ -20894,7 +20894,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="372" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A372" s="21" t="s">
         <v>581</v>
       </c>
@@ -20941,7 +20941,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="373" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A373" s="21" t="s">
         <v>581</v>
       </c>
@@ -20988,7 +20988,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="374" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A374" s="21" t="s">
         <v>581</v>
       </c>
@@ -21035,7 +21035,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="375" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A375" s="21" t="s">
         <v>581</v>
       </c>
@@ -21082,7 +21082,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="376" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A376" s="21" t="s">
         <v>581</v>
       </c>
@@ -21129,7 +21129,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="377" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A377" s="21" t="s">
         <v>581</v>
       </c>
@@ -21176,7 +21176,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A378" s="21" t="s">
         <v>581</v>
       </c>
@@ -21223,7 +21223,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="379" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A379" s="21" t="s">
         <v>581</v>
       </c>
@@ -21270,7 +21270,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="380" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A380" s="21" t="s">
         <v>581</v>
       </c>
@@ -21317,7 +21317,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="381" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A381" s="21" t="s">
         <v>581</v>
       </c>
@@ -21364,7 +21364,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="382" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A382" s="21" t="s">
         <v>581</v>
       </c>
@@ -21411,7 +21411,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="383" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A383" s="21" t="s">
         <v>581</v>
       </c>
@@ -21458,7 +21458,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="384" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A384" s="21" t="s">
         <v>581</v>
       </c>
@@ -21505,7 +21505,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="385" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A385" s="21" t="s">
         <v>581</v>
       </c>
@@ -21552,7 +21552,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="386" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A386" s="21" t="s">
         <v>581</v>
       </c>
@@ -21599,7 +21599,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="387" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A387" s="21" t="s">
         <v>581</v>
       </c>
@@ -21646,7 +21646,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="388" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A388" s="21" t="s">
         <v>581</v>
       </c>
@@ -21693,7 +21693,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="389" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A389" s="21" t="s">
         <v>581</v>
       </c>
@@ -21740,7 +21740,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="390" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A390" s="21" t="s">
         <v>581</v>
       </c>
@@ -21787,7 +21787,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="391" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A391" s="21" t="s">
         <v>581</v>
       </c>
@@ -21834,7 +21834,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="392" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A392" s="21" t="s">
         <v>581</v>
       </c>
@@ -21881,7 +21881,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="393" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A393" s="21" t="s">
         <v>581</v>
       </c>
@@ -21928,7 +21928,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="394" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A394" s="21" t="s">
         <v>581</v>
       </c>
@@ -21975,7 +21975,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="395" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A395" s="21" t="s">
         <v>581</v>
       </c>
@@ -22022,7 +22022,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="396" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A396" s="21" t="s">
         <v>581</v>
       </c>
@@ -22069,7 +22069,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="397" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A397" s="21" t="s">
         <v>581</v>
       </c>
@@ -22116,7 +22116,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="398" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A398" s="21" t="s">
         <v>581</v>
       </c>
@@ -22163,7 +22163,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="399" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A399" s="21" t="s">
         <v>581</v>
       </c>
@@ -22210,7 +22210,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="400" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A400" s="21" t="s">
         <v>581</v>
       </c>
@@ -22257,7 +22257,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="401" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A401" s="21" t="s">
         <v>581</v>
       </c>
@@ -22304,7 +22304,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="402" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A402" s="21" t="s">
         <v>581</v>
       </c>
@@ -22351,7 +22351,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="403" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A403" s="21" t="s">
         <v>581</v>
       </c>
@@ -22398,7 +22398,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="404" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A404" s="21" t="s">
         <v>581</v>
       </c>
@@ -22445,7 +22445,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="405" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A405" s="21" t="s">
         <v>581</v>
       </c>
@@ -22492,7 +22492,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="406" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A406" s="21" t="s">
         <v>581</v>
       </c>
@@ -22539,7 +22539,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="407" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A407" s="21" t="s">
         <v>581</v>
       </c>
@@ -22586,7 +22586,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="408" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A408" s="21" t="s">
         <v>581</v>
       </c>
@@ -22633,7 +22633,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="409" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A409" s="21" t="s">
         <v>581</v>
       </c>
@@ -22680,7 +22680,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="410" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A410" s="21" t="s">
         <v>581</v>
       </c>
@@ -22727,7 +22727,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="411" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A411" s="21" t="s">
         <v>581</v>
       </c>
@@ -22777,7 +22777,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="412" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A412" s="21" t="s">
         <v>581</v>
       </c>
@@ -22827,7 +22827,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="413" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A413" s="21" t="s">
         <v>581</v>
       </c>
@@ -22877,7 +22877,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="414" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A414" s="21" t="s">
         <v>581</v>
       </c>
@@ -22927,7 +22927,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="415" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A415" s="21" t="s">
         <v>581</v>
       </c>
@@ -22977,7 +22977,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="416" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A416" s="21" t="s">
         <v>581</v>
       </c>
@@ -23027,7 +23027,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="417" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A417" s="21" t="s">
         <v>581</v>
       </c>
@@ -23077,7 +23077,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="418" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A418" s="21" t="s">
         <v>581</v>
       </c>
@@ -23127,7 +23127,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="419" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A419" s="21" t="s">
         <v>581</v>
       </c>
@@ -23177,7 +23177,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="420" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A420" s="21" t="s">
         <v>581</v>
       </c>
@@ -23227,7 +23227,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="421" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A421" s="21" t="s">
         <v>581</v>
       </c>
@@ -23277,7 +23277,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="422" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A422" s="21" t="s">
         <v>581</v>
       </c>
@@ -23327,7 +23327,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="423" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A423" s="21" t="s">
         <v>581</v>
       </c>
@@ -23377,7 +23377,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="424" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A424" s="21" t="s">
         <v>581</v>
       </c>
@@ -23427,7 +23427,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="425" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A425" s="21" t="s">
         <v>581</v>
       </c>
@@ -23477,7 +23477,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="426" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A426" s="21" t="s">
         <v>581</v>
       </c>
@@ -23527,7 +23527,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="427" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A427" s="21" t="s">
         <v>581</v>
       </c>
@@ -23577,7 +23577,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="428" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A428" s="21" t="s">
         <v>581</v>
       </c>
@@ -23627,7 +23627,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="429" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A429" s="21" t="s">
         <v>581</v>
       </c>
@@ -23677,7 +23677,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="430" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A430" s="21" t="s">
         <v>581</v>
       </c>
@@ -23727,7 +23727,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="431" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A431" s="21" t="s">
         <v>581</v>
       </c>
@@ -23777,7 +23777,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="432" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A432" s="21" t="s">
         <v>581</v>
       </c>
@@ -23827,7 +23827,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="433" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A433" s="21" t="s">
         <v>581</v>
       </c>
@@ -23877,7 +23877,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="434" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A434" s="21" t="s">
         <v>581</v>
       </c>
@@ -23927,7 +23927,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="435" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A435" s="21" t="s">
         <v>581</v>
       </c>
@@ -23977,7 +23977,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="436" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A436" s="21" t="s">
         <v>581</v>
       </c>
@@ -24027,7 +24027,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="437" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A437" s="21" t="s">
         <v>581</v>
       </c>
@@ -24077,7 +24077,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="438" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A438" s="21" t="s">
         <v>581</v>
       </c>
@@ -24127,7 +24127,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="439" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A439" s="21" t="s">
         <v>581</v>
       </c>
@@ -24177,7 +24177,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="440" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A440" s="15" t="s">
         <v>581</v>
       </c>
@@ -24227,7 +24227,7 @@
       </c>
       <c r="R440" s="19"/>
     </row>
-    <row r="441" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A441" s="21" t="s">
         <v>581</v>
       </c>
@@ -24274,7 +24274,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="442" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A442" s="21" t="s">
         <v>581</v>
       </c>
@@ -24321,7 +24321,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="443" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A443" s="21" t="s">
         <v>581</v>
       </c>
@@ -24368,7 +24368,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="444" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A444" s="21" t="s">
         <v>581</v>
       </c>
@@ -24415,7 +24415,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="445" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A445" s="21" t="s">
         <v>581</v>
       </c>
@@ -24462,7 +24462,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="446" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A446" s="21" t="s">
         <v>581</v>
       </c>
@@ -24509,7 +24509,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="447" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A447" s="21" t="s">
         <v>581</v>
       </c>
@@ -24556,7 +24556,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="448" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A448" s="21" t="s">
         <v>581</v>
       </c>
@@ -24603,7 +24603,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="449" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A449" s="21" t="s">
         <v>581</v>
       </c>
@@ -24650,7 +24650,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="450" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A450" s="21" t="s">
         <v>581</v>
       </c>
@@ -24697,7 +24697,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="451" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A451" s="21" t="s">
         <v>581</v>
       </c>
@@ -24744,7 +24744,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="452" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A452" s="21" t="s">
         <v>581</v>
       </c>
@@ -24791,7 +24791,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="453" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A453" s="21" t="s">
         <v>581</v>
       </c>
@@ -24838,7 +24838,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="454" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A454" s="21" t="s">
         <v>581</v>
       </c>
@@ -24885,7 +24885,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="455" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A455" s="21" t="s">
         <v>581</v>
       </c>
@@ -24932,7 +24932,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="456" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A456" s="21" t="s">
         <v>581</v>
       </c>
@@ -24979,7 +24979,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="457" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A457" s="21" t="s">
         <v>581</v>
       </c>
@@ -25026,7 +25026,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="458" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A458" s="21" t="s">
         <v>581</v>
       </c>
@@ -25073,7 +25073,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="459" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A459" s="21" t="s">
         <v>581</v>
       </c>
@@ -25120,7 +25120,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="460" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A460" s="21" t="s">
         <v>581</v>
       </c>
@@ -25167,7 +25167,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="461" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A461" s="21" t="s">
         <v>581</v>
       </c>
@@ -25214,7 +25214,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="462" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A462" s="21" t="s">
         <v>581</v>
       </c>
@@ -25261,7 +25261,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="463" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A463" s="21" t="s">
         <v>581</v>
       </c>
@@ -25308,7 +25308,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="464" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A464" s="21" t="s">
         <v>581</v>
       </c>
@@ -25355,7 +25355,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="465" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A465" s="21" t="s">
         <v>581</v>
       </c>
@@ -25402,7 +25402,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="466" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A466" s="21" t="s">
         <v>581</v>
       </c>
@@ -25449,7 +25449,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="467" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A467" s="21" t="s">
         <v>581</v>
       </c>
@@ -25496,7 +25496,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="468" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A468" s="21" t="s">
         <v>581</v>
       </c>
@@ -25543,7 +25543,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="469" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A469" s="21" t="s">
         <v>581</v>
       </c>
@@ -25590,7 +25590,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="470" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A470" s="21" t="s">
         <v>581</v>
       </c>
@@ -25637,7 +25637,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="471" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A471" s="21" t="s">
         <v>581</v>
       </c>
@@ -25684,7 +25684,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="472" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A472" s="21" t="s">
         <v>581</v>
       </c>
@@ -25731,7 +25731,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="473" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A473" s="21" t="s">
         <v>581</v>
       </c>
@@ -25778,7 +25778,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="474" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A474" s="21" t="s">
         <v>581</v>
       </c>
@@ -25825,7 +25825,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="475" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A475" s="21" t="s">
         <v>581</v>
       </c>
@@ -25872,7 +25872,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="476" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A476" s="21" t="s">
         <v>581</v>
       </c>
@@ -25919,7 +25919,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="477" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A477" s="21" t="s">
         <v>581</v>
       </c>
@@ -25969,7 +25969,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="478" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A478" s="21" t="s">
         <v>581</v>
       </c>
@@ -26019,7 +26019,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="479" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A479" s="21" t="s">
         <v>581</v>
       </c>
@@ -26069,7 +26069,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="480" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A480" s="21" t="s">
         <v>581</v>
       </c>
@@ -26119,7 +26119,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="481" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A481" s="21" t="s">
         <v>581</v>
       </c>
@@ -26169,7 +26169,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="482" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A482" s="21" t="s">
         <v>581</v>
       </c>
@@ -26219,7 +26219,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="483" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A483" s="21" t="s">
         <v>581</v>
       </c>
@@ -26269,7 +26269,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="484" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A484" s="21" t="s">
         <v>581</v>
       </c>
@@ -26319,7 +26319,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="485" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A485" s="21" t="s">
         <v>581</v>
       </c>
@@ -26369,7 +26369,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="486" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A486" s="21" t="s">
         <v>581</v>
       </c>
@@ -26419,7 +26419,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="487" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A487" s="21" t="s">
         <v>581</v>
       </c>
@@ -26469,7 +26469,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="488" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A488" s="21" t="s">
         <v>581</v>
       </c>
@@ -26519,7 +26519,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="489" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A489" s="21" t="s">
         <v>581</v>
       </c>
@@ -26569,7 +26569,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="490" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A490" s="21" t="s">
         <v>581</v>
       </c>
@@ -26619,7 +26619,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="491" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A491" s="21" t="s">
         <v>581</v>
       </c>
@@ -26666,7 +26666,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="492" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A492" s="21" t="s">
         <v>581</v>
       </c>
@@ -26713,7 +26713,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="493" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A493" s="21" t="s">
         <v>581</v>
       </c>
@@ -26760,7 +26760,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="494" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A494" s="21" t="s">
         <v>581</v>
       </c>
@@ -26807,7 +26807,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="495" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A495" s="21" t="s">
         <v>581</v>
       </c>
@@ -26854,7 +26854,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="496" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A496" s="21" t="s">
         <v>581</v>
       </c>
@@ -26901,7 +26901,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="497" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A497" s="21" t="s">
         <v>581</v>
       </c>
@@ -26948,7 +26948,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="498" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A498" s="21" t="s">
         <v>581</v>
       </c>
@@ -26992,7 +26992,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="499" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A499" s="21" t="s">
         <v>581</v>
       </c>
@@ -27036,7 +27036,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="500" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A500" s="21" t="s">
         <v>581</v>
       </c>
@@ -27080,7 +27080,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="501" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A501" s="21" t="s">
         <v>581</v>
       </c>
@@ -27130,7 +27130,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="502" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A502" s="21" t="s">
         <v>581</v>
       </c>
@@ -27180,7 +27180,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="503" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A503" s="21" t="s">
         <v>581</v>
       </c>
@@ -27230,7 +27230,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="504" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A504" s="21" t="s">
         <v>581</v>
       </c>
@@ -27280,7 +27280,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="505" spans="1:18" ht="36" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:18" ht="24" x14ac:dyDescent="0.3">
       <c r="A505" s="21" t="s">
         <v>581</v>
       </c>
@@ -27333,7 +27333,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="506" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A506" s="15" t="s">
         <v>581</v>
       </c>
@@ -27385,7 +27385,7 @@
       </c>
       <c r="R506" s="19"/>
     </row>
-    <row r="507" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A507" s="21" t="s">
         <v>581</v>
       </c>
@@ -27432,7 +27432,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="508" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A508" s="21" t="s">
         <v>581</v>
       </c>
@@ -27479,7 +27479,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="509" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A509" s="21" t="s">
         <v>581</v>
       </c>
@@ -27526,7 +27526,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="510" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A510" s="21" t="s">
         <v>581</v>
       </c>
@@ -27573,7 +27573,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="511" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A511" s="21" t="s">
         <v>581</v>
       </c>
@@ -27620,7 +27620,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="512" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A512" s="21" t="s">
         <v>581</v>
       </c>
@@ -27667,7 +27667,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="513" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A513" s="21" t="s">
         <v>581</v>
       </c>
@@ -27714,7 +27714,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="514" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A514" s="21" t="s">
         <v>581</v>
       </c>
@@ -27761,7 +27761,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="515" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A515" s="21" t="s">
         <v>581</v>
       </c>
@@ -27808,7 +27808,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="516" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A516" s="21" t="s">
         <v>581</v>
       </c>
@@ -27855,7 +27855,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="517" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A517" s="21" t="s">
         <v>581</v>
       </c>
@@ -27902,7 +27902,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="518" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A518" s="21" t="s">
         <v>581</v>
       </c>
@@ -27949,7 +27949,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="519" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A519" s="21" t="s">
         <v>581</v>
       </c>
@@ -27996,7 +27996,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="520" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A520" s="21" t="s">
         <v>581</v>
       </c>
@@ -28043,7 +28043,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="521" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A521" s="21" t="s">
         <v>581</v>
       </c>
@@ -28090,7 +28090,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="522" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A522" s="21" t="s">
         <v>581</v>
       </c>
@@ -28137,7 +28137,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="523" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A523" s="21" t="s">
         <v>581</v>
       </c>
@@ -28184,7 +28184,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="524" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A524" s="21" t="s">
         <v>581</v>
       </c>
@@ -28231,7 +28231,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="525" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A525" s="21" t="s">
         <v>581</v>
       </c>
@@ -28278,7 +28278,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="526" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A526" s="21" t="s">
         <v>581</v>
       </c>
@@ -28325,7 +28325,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="527" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A527" s="21" t="s">
         <v>581</v>
       </c>
@@ -28372,7 +28372,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="528" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A528" s="21" t="s">
         <v>581</v>
       </c>
@@ -28419,7 +28419,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="529" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A529" s="21" t="s">
         <v>581</v>
       </c>
@@ -28466,7 +28466,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="530" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A530" s="21" t="s">
         <v>581</v>
       </c>
@@ -28513,7 +28513,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="531" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A531" s="21" t="s">
         <v>581</v>
       </c>
@@ -28560,7 +28560,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="532" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A532" s="21" t="s">
         <v>581</v>
       </c>
@@ -28607,7 +28607,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="533" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A533" s="21" t="s">
         <v>581</v>
       </c>
@@ -28654,7 +28654,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="534" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A534" s="21" t="s">
         <v>581</v>
       </c>
@@ -28701,7 +28701,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="535" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A535" s="21" t="s">
         <v>581</v>
       </c>
@@ -28748,7 +28748,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="536" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A536" s="21" t="s">
         <v>581</v>
       </c>
@@ -28795,7 +28795,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="537" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A537" s="21" t="s">
         <v>581</v>
       </c>
@@ -28842,7 +28842,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="538" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A538" s="21" t="s">
         <v>581</v>
       </c>
@@ -28889,7 +28889,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="539" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A539" s="21" t="s">
         <v>581</v>
       </c>
@@ -28936,7 +28936,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="540" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A540" s="21" t="s">
         <v>581</v>
       </c>
@@ -28983,7 +28983,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="541" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A541" s="21" t="s">
         <v>581</v>
       </c>
@@ -29030,7 +29030,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="542" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A542" s="21" t="s">
         <v>581</v>
       </c>
@@ -29077,7 +29077,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="543" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A543" s="21" t="s">
         <v>581</v>
       </c>
@@ -29124,7 +29124,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="544" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A544" s="21" t="s">
         <v>581</v>
       </c>
@@ -29171,7 +29171,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="545" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A545" s="21" t="s">
         <v>581</v>
       </c>
@@ -29218,7 +29218,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="546" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A546" s="21" t="s">
         <v>581</v>
       </c>
@@ -29265,7 +29265,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="547" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A547" s="21" t="s">
         <v>581</v>
       </c>
@@ -29312,7 +29312,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="548" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A548" s="21" t="s">
         <v>581</v>
       </c>
@@ -29359,7 +29359,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="549" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A549" s="21" t="s">
         <v>581</v>
       </c>
@@ -29409,7 +29409,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="550" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A550" s="21" t="s">
         <v>581</v>
       </c>
@@ -29459,7 +29459,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="551" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A551" s="21" t="s">
         <v>581</v>
       </c>
@@ -29509,7 +29509,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="552" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A552" s="21" t="s">
         <v>581</v>
       </c>
@@ -29559,7 +29559,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="553" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A553" s="21" t="s">
         <v>581</v>
       </c>
@@ -29609,7 +29609,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="554" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A554" s="21" t="s">
         <v>581</v>
       </c>
@@ -29659,7 +29659,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="555" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A555" s="21" t="s">
         <v>581</v>
       </c>
@@ -29709,7 +29709,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="556" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A556" s="21" t="s">
         <v>581</v>
       </c>
@@ -29759,7 +29759,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="557" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A557" s="21" t="s">
         <v>581</v>
       </c>
@@ -29809,7 +29809,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="558" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A558" s="21" t="s">
         <v>581</v>
       </c>
@@ -29859,7 +29859,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="559" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A559" s="21" t="s">
         <v>581</v>
       </c>
@@ -29909,7 +29909,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="560" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A560" s="21" t="s">
         <v>581</v>
       </c>
@@ -29959,7 +29959,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="561" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A561" s="21" t="s">
         <v>581</v>
       </c>
@@ -30009,7 +30009,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="562" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A562" s="21" t="s">
         <v>581</v>
       </c>
@@ -30059,7 +30059,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="563" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A563" s="21" t="s">
         <v>581</v>
       </c>
@@ -30109,7 +30109,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="564" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A564" s="21" t="s">
         <v>581</v>
       </c>
@@ -30159,7 +30159,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="565" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A565" s="21" t="s">
         <v>581</v>
       </c>
@@ -30206,7 +30206,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="566" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A566" s="21" t="s">
         <v>581</v>
       </c>
@@ -30253,7 +30253,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="567" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A567" s="21" t="s">
         <v>581</v>
       </c>
@@ -30300,7 +30300,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="568" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A568" s="21" t="s">
         <v>581</v>
       </c>
@@ -30347,7 +30347,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="569" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A569" s="21" t="s">
         <v>581</v>
       </c>
@@ -30394,7 +30394,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="570" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A570" s="21" t="s">
         <v>581</v>
       </c>
@@ -30438,7 +30438,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="571" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A571" s="21" t="s">
         <v>581</v>
       </c>
@@ -30482,7 +30482,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="572" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A572" s="21" t="s">
         <v>581</v>
       </c>
@@ -30526,7 +30526,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="573" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A573" s="21" t="s">
         <v>581</v>
       </c>
@@ -30578,7 +30578,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="574" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A574" s="21" t="s">
         <v>581</v>
       </c>
@@ -30630,7 +30630,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="575" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A575" s="21" t="s">
         <v>581</v>
       </c>
@@ -30682,7 +30682,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="576" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A576" s="21" t="s">
         <v>581</v>
       </c>
@@ -30734,7 +30734,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="577" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A577" s="21" t="s">
         <v>581</v>
       </c>
@@ -30786,7 +30786,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="578" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A578" s="21" t="s">
         <v>581</v>
       </c>
@@ -30838,7 +30838,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="579" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A579" s="21" t="s">
         <v>581</v>
       </c>
@@ -30890,7 +30890,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="580" spans="1:18" ht="36" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:18" ht="36" x14ac:dyDescent="0.3">
       <c r="A580" s="15" t="s">
         <v>581</v>
       </c>
@@ -30944,7 +30944,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="581" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A581" s="21" t="s">
         <v>581</v>
       </c>
@@ -30994,7 +30994,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="582" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A582" s="21" t="s">
         <v>581</v>
       </c>
@@ -31044,7 +31044,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="583" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A583" s="21" t="s">
         <v>581</v>
       </c>
@@ -31094,7 +31094,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="584" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A584" s="21" t="s">
         <v>581</v>
       </c>
@@ -31144,7 +31144,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="585" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A585" s="21" t="s">
         <v>581</v>
       </c>
@@ -31194,7 +31194,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="586" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A586" s="21" t="s">
         <v>581</v>
       </c>
@@ -31244,7 +31244,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="587" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A587" s="21" t="s">
         <v>581</v>
       </c>
@@ -31309,20 +31309,17 @@
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.5703125"/>
-    <col min="2" max="3" width="8.7109375"/>
+    <col min="1" max="1" width="27.54296875"/>
     <col min="4" max="4" width="12" style="1"/>
-    <col min="5" max="8" width="8.7109375"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="1022" width="8.7109375"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>551</v>
       </c>
@@ -31331,7 +31328,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>553</v>
       </c>
@@ -31346,7 +31343,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>552</v>
       </c>
@@ -31361,7 +31358,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>554</v>
       </c>
@@ -31373,7 +31370,7 @@
         <v>0.35821505271298998</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>560</v>
       </c>
@@ -31411,7 +31408,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>567</v>
       </c>
@@ -31432,7 +31429,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -31469,7 +31466,7 @@
         <v>4.4738529705915686E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -31506,7 +31503,7 @@
         <v>5.0040873967357562E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
@@ -31543,7 +31540,7 @@
         <v>0.39601883702643903</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
@@ -31580,7 +31577,7 @@
         <v>0.37116409830093033</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
@@ -31617,7 +31614,7 @@
         <v>-0.4399288754415045</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>81</v>
       </c>
@@ -31654,7 +31651,7 @@
         <v>1.8641054044131546E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>82</v>
       </c>
@@ -31691,7 +31688,7 @@
         <v>0.27257363468974571</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>83</v>
       </c>
@@ -31728,7 +31725,7 @@
         <v>1.0356141135628636</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>84</v>
       </c>
@@ -31765,7 +31762,7 @@
         <v>0.76386897016396826</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>136</v>
       </c>
@@ -31802,7 +31799,7 @@
         <v>7.0421759722274713E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>137</v>
       </c>
@@ -31839,7 +31836,7 @@
         <v>0.19386696205896806</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>138</v>
       </c>
@@ -31876,7 +31873,7 @@
         <v>0.38276297637283441</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>139</v>
       </c>
@@ -31913,7 +31910,7 @@
         <v>1.7895411882366281</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>140</v>
       </c>
@@ -31950,7 +31947,7 @@
         <v>1.2675916750009448</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>199</v>
       </c>
@@ -31987,7 +31984,7 @@
         <v>8.3677620375879391E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>200</v>
       </c>
@@ -32024,7 +32021,7 @@
         <v>6.8764777140574135E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>201</v>
       </c>
@@ -32061,7 +32058,7 @@
         <v>8.7820076830130836E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>202</v>
       </c>
@@ -32098,7 +32095,7 @@
         <v>0.58408636004945502</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>203</v>
       </c>
@@ -32135,7 +32132,7 @@
         <v>1.6569825817005821</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>204</v>
       </c>
@@ -32172,7 +32169,7 @@
         <v>3.3388199021266725</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>205</v>
       </c>
@@ -32209,7 +32206,7 @@
         <v>1.830965752779143</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>275</v>
       </c>
@@ -32246,7 +32243,7 @@
         <v>6.1308355522921524E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>276</v>
       </c>
@@ -32283,7 +32280,7 @@
         <v>0.10770386781053784</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>277</v>
       </c>
@@ -32320,7 +32317,7 @@
         <v>9.4448007156933151E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>278</v>
       </c>
@@ -32357,7 +32354,7 @@
         <v>0.46395512287616292</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>279</v>
       </c>
@@ -32394,7 +32391,7 @@
         <v>2.1043678787597383E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>280</v>
       </c>
@@ -32431,7 +32428,7 @@
         <v>6.1391204652006544E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>281</v>
       </c>
@@ -32468,7 +32465,7 @@
         <v>6.9179022785999286E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>343</v>
       </c>
@@ -32505,7 +32502,7 @@
         <v>0.21057486975778228</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>344</v>
       </c>
@@ -32542,7 +32539,7 @@
         <v>0.5613028495510719</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>345</v>
       </c>
@@ -32579,7 +32576,7 @@
         <v>5.7511103773191019</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>346</v>
       </c>
@@ -32616,7 +32613,7 @@
         <v>1.4912843235305238</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>347</v>
       </c>
@@ -32653,7 +32650,7 @@
         <v>1.1667919012808263</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>412</v>
       </c>
@@ -32690,7 +32687,7 @@
         <v>0.11847425459159161</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>413</v>
       </c>
@@ -32727,7 +32724,7 @@
         <v>0.35873672893817599</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>414</v>
       </c>
@@ -32764,7 +32761,7 @@
         <v>0.50123723096442607</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>415</v>
       </c>
@@ -32801,7 +32798,7 @@
         <v>0.92045382413467314</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>416</v>
       </c>
@@ -32838,7 +32835,7 @@
         <v>1.5575636267985469</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>472</v>
       </c>
@@ -32875,7 +32872,7 @@
         <v>0.15907032784325587</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>473</v>
       </c>
@@ -32912,7 +32909,7 @@
         <v>0.25931777403614104</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>474</v>
       </c>
@@ -32949,7 +32946,7 @@
         <v>6.3462432879132287</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>475</v>
       </c>
@@ -32986,7 +32983,7 @@
         <v>0.96022140609548712</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>476</v>
       </c>
@@ -33023,7 +33020,7 @@
         <v>1.2510218491839391</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>653</v>
       </c>
@@ -33060,7 +33057,7 @@
         <v>9.1962533284382308E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>654</v>
       </c>
@@ -33097,7 +33094,7 @@
         <v>0.32311160343161338</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>655</v>
       </c>
@@ -33134,7 +33131,7 @@
         <v>1.731546797877108</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>656</v>
       </c>
@@ -33171,7 +33168,7 @@
         <v>1.3255860653604654</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>657</v>
       </c>
